--- a/data_to_load/roles.xlsx
+++ b/data_to_load/roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krpop\Documents\KenP\Applications-Python\demand_capacity_app\data_to_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE260D-4F8F-4E09-B9F6-B2053B60C190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7F92F-7BDC-4659-A37B-98FFA498EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AB67AD10-3DEB-4CC1-9CD2-9CE7B80EC845}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Architect</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
   </si>
 </sst>
 </file>
@@ -285,10 +288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF76323-1EAE-4C92-B7E3-4134B929D9C5}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,92 +630,97 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:V25">
+    <sortCondition ref="A6:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,6 +929,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3f5717c7-db0b-4217-ba9d-d939c34275cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95b0fa68-fb80-4536-975a-110ff333bd9a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086A72C854002854794493D02C0B42ECC" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7c05f9d745027607f7cc13caf7a7fc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95b0fa68-fb80-4536-975a-110ff333bd9a" xmlns:ns3="3f5717c7-db0b-4217-ba9d-d939c34275cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71bac019da2bb0526f6d7cdd3dc708b4" ns2:_="" ns3:_="">
     <xsd:import namespace="95b0fa68-fb80-4536-975a-110ff333bd9a"/>
@@ -1179,17 +1194,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3f5717c7-db0b-4217-ba9d-d939c34275cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95b0fa68-fb80-4536-975a-110ff333bd9a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D551748C-E602-4AD2-AEB2-C933215C0BFC}">
   <ds:schemaRefs>
@@ -1199,6 +1203,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADFDD51-E98C-4A2F-9DC1-81CEE9EC7660}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3f5717c7-db0b-4217-ba9d-d939c34275cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="95b0fa68-fb80-4536-975a-110ff333bd9a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5369BF68-05DD-4C76-9062-179DEE4E2A9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1215,21 +1236,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADFDD51-E98C-4A2F-9DC1-81CEE9EC7660}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3f5717c7-db0b-4217-ba9d-d939c34275cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="95b0fa68-fb80-4536-975a-110ff333bd9a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_to_load/roles.xlsx
+++ b/data_to_load/roles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krpop\Documents\KenP\Applications-Python\demand_capacity_app\data_to_load\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krpop\Documents\KenP\Applications-Python\demand-capacity2\data_to_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7F92F-7BDC-4659-A37B-98FFA498EB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5AADA3-8ECF-48E4-804C-8CF18B6D91F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AB67AD10-3DEB-4CC1-9CD2-9CE7B80EC845}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,26 +920,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3f5717c7-db0b-4217-ba9d-d939c34275cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95b0fa68-fb80-4536-975a-110ff333bd9a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086A72C854002854794493D02C0B42ECC" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7c05f9d745027607f7cc13caf7a7fc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95b0fa68-fb80-4536-975a-110ff333bd9a" xmlns:ns3="3f5717c7-db0b-4217-ba9d-d939c34275cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71bac019da2bb0526f6d7cdd3dc708b4" ns2:_="" ns3:_="">
     <xsd:import namespace="95b0fa68-fb80-4536-975a-110ff333bd9a"/>
@@ -1194,10 +1174,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3f5717c7-db0b-4217-ba9d-d939c34275cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="95b0fa68-fb80-4536-975a-110ff333bd9a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D551748C-E602-4AD2-AEB2-C933215C0BFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5369BF68-05DD-4C76-9062-179DEE4E2A9E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95b0fa68-fb80-4536-975a-110ff333bd9a"/>
+    <ds:schemaRef ds:uri="3f5717c7-db0b-4217-ba9d-d939c34275cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1220,20 +1231,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5369BF68-05DD-4C76-9062-179DEE4E2A9E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D551748C-E602-4AD2-AEB2-C933215C0BFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95b0fa68-fb80-4536-975a-110ff333bd9a"/>
-    <ds:schemaRef ds:uri="3f5717c7-db0b-4217-ba9d-d939c34275cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>